--- a/biology/Biologie cellulaire et moléculaire/Maturase_K/Maturase_K.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Maturase_K/Maturase_K.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maturase K (matK) est un gène plastidial végétal[1]. La protéine qu'il code est un organelle intron maturase, une protéine qui réalise l'épissage d'introns du Groupe II. Il est essentiel pour le raccordement in vivo des introns du Groupe II[2]. Cette protéine préserve seulement un domaine X bien conservé et les restes d'un domaine de transcriptase inverse[3].
-Les amorces d'Universal MatK peuvent être utilisés pour le codage de l'ADN d'angiospermes[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maturase K (matK) est un gène plastidial végétal. La protéine qu'il code est un organelle intron maturase, une protéine qui réalise l'épissage d'introns du Groupe II. Il est essentiel pour le raccordement in vivo des introns du Groupe II. Cette protéine préserve seulement un domaine X bien conservé et les restes d'un domaine de transcriptase inverse.
+Les amorces d'Universal MatK peuvent être utilisés pour le codage de l'ADN d'angiospermes.
 </t>
         </is>
       </c>
